--- a/PROJECTS MACRO/Profit Loss/07-02-2024/Macro/WO BUDGETING/Fungfung/Fungfung.xlsx
+++ b/PROJECTS MACRO/Profit Loss/07-02-2024/Macro/WO BUDGETING/Fungfung/Fungfung.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\07-02-2024\Macro\WO BUDGETING\Fungfung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63061472-CA53-4C2C-942F-BD5E9B818586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{189E1F1E-C1F0-493B-BAF5-6CCD9215C3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{97A05ED5-E880-4F41-9E6D-A9079219D9F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{EA06DA1F-85CD-40A2-B11B-1C35B758C9D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Fungfung" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Periode : February-2024</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>OVER</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>SALES COMMISSION</t>
@@ -753,8 +756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B139AE-83FB-4574-9AAC-9A28C02D25AF}">
-  <sheetPr codeName="Sheet19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529C1F40-F83A-4101-BEE6-612ACB8C84B9}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -968,26 +970,28 @@
       <c r="P6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="31"/>
+      <c r="Q6" s="31" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="34">
         <v>700</v>
@@ -1011,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O7" s="33">
         <v>1</v>
@@ -1019,23 +1023,25 @@
       <c r="P7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="38"/>
+      <c r="Q7" s="38" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>23</v>
@@ -1060,34 +1066,36 @@
         <v>6.25E-2</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O8" s="26">
         <v>2</v>
       </c>
       <c r="P8" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="31"/>
+        <v>35</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="34">
         <v>50</v>
@@ -1109,15 +1117,17 @@
         <v>6.25E-2</v>
       </c>
       <c r="N9" s="37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O9" s="33">
         <v>2</v>
       </c>
       <c r="P9" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="38"/>
+        <v>35</v>
+      </c>
+      <c r="Q9" s="38" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I3:I9">
@@ -1131,10 +1141,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{246A6B0F-8C07-475D-8642-BFEE63F616A6}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{551DC2EE-3C15-4065-9C98-C262B9366C5D}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{E1E9918A-8715-4BA6-8ABF-8F062EB8EC52}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{75B67E66-802C-43F9-8470-13F77E2C9D6F}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{665C1094-394F-4C4D-8018-DE38610E3713}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{9A6962AD-E4C2-4850-92C6-A39E3191CA2B}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{FF276502-B134-4BDB-8C4F-A8490287F4B3}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{64C854AD-C295-4E93-A356-BE77591285E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
